--- a/spec/ConvSpec-1XX,7XX,8XX-Names-v1.7.xlsx
+++ b/spec/ConvSpec-1XX,7XX,8XX-Names-v1.7.xlsx
@@ -195,7 +195,7 @@
 http://id.loc.gov/vocabulary/nameTitleSchemes/"content of $2" ; if necessary, convert code to lower-case letters</t>
   </si>
   <si>
-    <t>Fields X00, X10, X11; 1XX, 7XX, 8XX - Names - v1.7, 08/04/2021</t>
+    <t>Fields X00, X10, X11; 1XX, 7XX, 8XX - Names - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
